--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/148.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/148.xlsx
@@ -479,13 +479,13 @@
         <v>4.015458454491092</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.274666530301736</v>
+        <v>-4.766009366861037</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.953544427703378</v>
+        <v>-4.382016989519803</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.67389015384793</v>
+        <v>-10.41324741975896</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>4.200740878933347</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.157190937862286</v>
+        <v>-5.758507094885974</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.973173790274041</v>
+        <v>-4.239727333665111</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.52692660742846</v>
+        <v>-10.45239369774235</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>4.446327309484301</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.569774227361239</v>
+        <v>-6.30244333187833</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.029456037325966</v>
+        <v>-4.190103913965924</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.04857150854891</v>
+        <v>-10.13301932416113</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>4.743124794904121</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.276890846550615</v>
+        <v>-7.036107258355054</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.714613773110377</v>
+        <v>-3.759685527416466</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.779245898264294</v>
+        <v>-10.03954151286571</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5.093576010185144</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.047965453572974</v>
+        <v>-7.929089251603937</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.664291225429221</v>
+        <v>-3.691464325595535</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.397360682882701</v>
+        <v>-9.671736637260835</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>5.494353671028684</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.730573481338505</v>
+        <v>-8.679664252833319</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.576220655728616</v>
+        <v>-3.621776421714529</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.824955758904299</v>
+        <v>-9.232625596502002</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>5.944377660463965</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.392290782761711</v>
+        <v>-9.315997830603502</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.46859405856035</v>
+        <v>-3.543410530644749</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.219608706656624</v>
+        <v>-8.836865379632103</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>6.439376609342311</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.06016334383036</v>
+        <v>-9.92481118871982</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.35018231224367</v>
+        <v>-3.442970773570849</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.709783070574733</v>
+        <v>-8.352765697683919</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>6.972403744201054</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.29439566282426</v>
+        <v>-10.15992841795663</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.219577382800904</v>
+        <v>-3.349033395629945</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.409954946447439</v>
+        <v>-8.190225775386464</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>7.541187816311378</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.96764124243965</v>
+        <v>-10.78698754970027</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.27194353535243</v>
+        <v>-3.425477907001027</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.834909958760903</v>
+        <v>-7.671111026257436</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>8.138880009268361</v>
       </c>
       <c r="E12" t="n">
-        <v>-11.56101511687025</v>
+        <v>-11.36817801901852</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.861433184765049</v>
+        <v>-3.052270678808207</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.276238255071665</v>
+        <v>-7.139812872016054</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>8.753989218564421</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.50315118515909</v>
+        <v>-12.23237353983501</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.608686196766147</v>
+        <v>-2.85480858046038</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.535822610111731</v>
+        <v>-6.547314129814632</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>9.373855303524428</v>
       </c>
       <c r="E14" t="n">
-        <v>-12.95810260816673</v>
+        <v>-12.68567736752849</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.574424036642808</v>
+        <v>-2.908988554559531</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.969670725916114</v>
+        <v>-5.892255655744165</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>9.980837479666032</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.6763466069852</v>
+        <v>-13.31310317478716</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.389076897311195</v>
+        <v>-2.68218263699648</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.182858405789156</v>
+        <v>-5.015832728753525</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>10.55553346615712</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.38731576358571</v>
+        <v>-13.90743040555681</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.076899141838075</v>
+        <v>-2.440450581468737</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.978111687209625</v>
+        <v>-4.698394401891604</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>11.07908724717763</v>
       </c>
       <c r="E17" t="n">
-        <v>-15.2725975710192</v>
+        <v>-14.78423467508307</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.674328538402564</v>
+        <v>-2.058565366087143</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.470872335760332</v>
+        <v>-4.0504787668537</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>11.53234125574543</v>
       </c>
       <c r="E18" t="n">
-        <v>-15.93209526332483</v>
+        <v>-15.35353019069411</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.471327195274521</v>
+        <v>-1.953226824132594</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.262693534360227</v>
+        <v>-3.727579419321435</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>11.90589227324347</v>
       </c>
       <c r="E19" t="n">
-        <v>-16.69563591076527</v>
+        <v>-16.15880828975741</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.011432986324433</v>
+        <v>-1.501922600247675</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.643104805109229</v>
+        <v>-3.004426857608578</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>12.19546419612002</v>
       </c>
       <c r="E20" t="n">
-        <v>-17.60827171161915</v>
+        <v>-17.00182463282642</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6888954253003201</v>
+        <v>-1.061149297154091</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.649484959070552</v>
+        <v>-2.793123980820514</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>12.39955378010366</v>
       </c>
       <c r="E21" t="n">
-        <v>-17.85714171717258</v>
+        <v>-17.38365606913247</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.277553943545564</v>
+        <v>-0.6676331344361069</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.757898686344392</v>
+        <v>-2.886474677937388</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>12.52272795049703</v>
       </c>
       <c r="E22" t="n">
-        <v>-18.37682848010504</v>
+        <v>-17.94554962834701</v>
       </c>
       <c r="F22" t="n">
-        <v>0.07618037029633323</v>
+        <v>-0.352223745423956</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.708387713803144</v>
+        <v>-2.694419821184368</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>12.5726369753981</v>
       </c>
       <c r="E23" t="n">
-        <v>-18.83928452865339</v>
+        <v>-18.31328605785575</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1803797736508915</v>
+        <v>-0.2678248198804032</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.639545608110114</v>
+        <v>-2.600731782593677</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>12.55715194071494</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.07210881366962</v>
+        <v>-18.56291874848043</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2611559451060603</v>
+        <v>-0.1098121179417121</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.067426600095644</v>
+        <v>-2.939016834736123</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>12.4844965545231</v>
       </c>
       <c r="E25" t="n">
-        <v>-19.68537116803483</v>
+        <v>-19.18483953400694</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4282279767691448</v>
+        <v>0.1074015681484521</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.305985690166759</v>
+        <v>-3.270271495003945</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>12.36138923617619</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.67233218672077</v>
+        <v>-19.20254751687891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4930659858381709</v>
+        <v>0.1921720582138904</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.522133572759936</v>
+        <v>-3.409681525814025</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>12.19332005211548</v>
       </c>
       <c r="E27" t="n">
-        <v>-19.85528860169446</v>
+        <v>-19.38129449694019</v>
       </c>
       <c r="F27" t="n">
-        <v>0.318831559115056</v>
+        <v>-0.0341498476693364</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.84595205358318</v>
+        <v>-3.774103208666998</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>11.98890785810775</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.04287979517798</v>
+        <v>-19.47508031566822</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3916875394458225</v>
+        <v>0.1028694587828219</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.252546309670162</v>
+        <v>-4.228541285953609</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>11.75290548349818</v>
       </c>
       <c r="E29" t="n">
-        <v>-19.81680233963811</v>
+        <v>-19.2548012222725</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1978579732001124</v>
+        <v>-0.06102471841676788</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.479083331855533</v>
+        <v>-4.490489384876046</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>11.48819301727852</v>
       </c>
       <c r="E30" t="n">
-        <v>-19.54453843622648</v>
+        <v>-18.95260192981475</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2730900108681997</v>
+        <v>0.02013279557402026</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.012747765420501</v>
+        <v>-5.246271178418693</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>11.20297862446239</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.38878934446717</v>
+        <v>-18.9082928605799</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2588238888305419</v>
+        <v>0.08813888109280719</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.02932638770621</v>
+        <v>-5.356386280082218</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>10.90154486704813</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.28701977752547</v>
+        <v>-18.94872494736929</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.03161734211227446</v>
+        <v>-0.2329906459536343</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.403570085354815</v>
+        <v>-5.826302953109483</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>10.58784610484965</v>
       </c>
       <c r="E33" t="n">
-        <v>-18.93029828048789</v>
+        <v>-18.59718090860377</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1087903155065269</v>
+        <v>-0.2932916566501632</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.541645417290227</v>
+        <v>-6.011811429667704</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>10.26588303596366</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.58664509880557</v>
+        <v>-18.17601252304651</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2232664112953404</v>
+        <v>-0.4167244130191649</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.779265818042894</v>
+        <v>-6.480041395325882</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>9.936456325401345</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.06675788659156</v>
+        <v>-17.66650956141784</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3359091295090608</v>
+        <v>-0.4161866222638043</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.563284161683193</v>
+        <v>-6.330525787321889</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>9.605193904181393</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.57275307673101</v>
+        <v>-17.20374550543687</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3656245132461699</v>
+        <v>-0.5752064596170798</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.726992556621839</v>
+        <v>-6.417819004930656</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>9.276409121580786</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.22889944576715</v>
+        <v>-16.79826105390868</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2541453786667752</v>
+        <v>-0.380218198743911</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.433089908817247</v>
+        <v>-6.231870517754412</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>8.950550128687759</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.71715731899343</v>
+        <v>-16.30168951544299</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.41091627286127</v>
+        <v>-0.6383968733719556</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.368105229542214</v>
+        <v>-6.147290698956784</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>8.633592929888582</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.07901480868249</v>
+        <v>-15.70946944663299</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5106813469875364</v>
+        <v>-0.7307355460673782</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.328152265425785</v>
+        <v>-6.126903540321749</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>8.328903573824945</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.7412675472954</v>
+        <v>-15.21235522840507</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4627397456505684</v>
+        <v>-0.6858349070016313</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.418598892463711</v>
+        <v>-6.224023661733014</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>8.037160964166437</v>
       </c>
       <c r="E41" t="n">
-        <v>-14.96391545545592</v>
+        <v>-14.41784272246273</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5379766723255226</v>
+        <v>-0.7709622945683544</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.620505098053565</v>
+        <v>-6.441017342514167</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>7.758517998314163</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.37624216303215</v>
+        <v>-13.89860085915516</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6118935671464096</v>
+        <v>-0.8767115130997247</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.730189967112802</v>
+        <v>-6.438035048325349</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>7.491485780375331</v>
       </c>
       <c r="E43" t="n">
-        <v>-13.91839155895243</v>
+        <v>-13.3323071937604</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7922196964257006</v>
+        <v>-1.087114812624276</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.489318376793636</v>
+        <v>-6.220425352678965</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>7.235248812543618</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.37655270590598</v>
+        <v>-12.86391589087561</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.7609349414843118</v>
+        <v>-1.011828995880653</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.635191674681778</v>
+        <v>-6.33329785421543</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.990348483646692</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.74026801820447</v>
+        <v>-12.20713159738112</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.8048480011629419</v>
+        <v>-1.088161060093796</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.839214820245005</v>
+        <v>-6.470248714571452</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.755677570340867</v>
       </c>
       <c r="E46" t="n">
-        <v>-11.75836476806013</v>
+        <v>-11.21009198197682</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.9950108122584658</v>
+        <v>-1.267269826663225</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.905416862229901</v>
+        <v>-6.477582224871824</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.531219076994361</v>
       </c>
       <c r="E47" t="n">
-        <v>-11.48761156777038</v>
+        <v>-10.99807531018619</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.051605955749873</v>
+        <v>-1.335823480951107</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.239032912814443</v>
+        <v>-6.806128375335375</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>6.319552683221128</v>
       </c>
       <c r="E48" t="n">
-        <v>-10.77278009574502</v>
+        <v>-10.29376986994529</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.230123152488406</v>
+        <v>-1.55072466679322</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.364665722273556</v>
+        <v>-6.749934130407055</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>6.120146518644469</v>
       </c>
       <c r="E49" t="n">
-        <v>-10.28651458375479</v>
+        <v>-9.823843418904293</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.328010847977777</v>
+        <v>-1.621268146875936</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.339736676259156</v>
+        <v>-6.726300671212388</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.931604540555707</v>
       </c>
       <c r="E50" t="n">
-        <v>-9.735777738210553</v>
+        <v>-9.245791691994604</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.594520390307044</v>
+        <v>-1.870455937875724</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.670966891492645</v>
+        <v>-7.01574943376122</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.751483639087065</v>
       </c>
       <c r="E51" t="n">
-        <v>-9.267811778923189</v>
+        <v>-8.79289365187107</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.588345574634131</v>
+        <v>-1.901163790006817</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.910171330470193</v>
+        <v>-7.189670964044853</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>5.575469933404992</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.761467115730541</v>
+        <v>-8.31122869534261</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.667850604303902</v>
+        <v>-1.986770300246498</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.899239511115771</v>
+        <v>-7.035667247737032</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>5.401352608236777</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.293794496855192</v>
+        <v>-7.916979181594589</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.573341212559569</v>
+        <v>-1.932580548133612</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.154792789056282</v>
+        <v>-7.159276008353243</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>5.225620097501589</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.657773815524491</v>
+        <v>-7.427731375415543</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.68081625051496</v>
+        <v>-2.040627599892433</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.051380515807296</v>
+        <v>-7.00706655756558</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>5.043132013040305</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.973493747410474</v>
+        <v>-6.674100744894337</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.919429119661611</v>
+        <v>-2.287991791330861</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.219303234665224</v>
+        <v>-7.116106077718384</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>4.853798591822717</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.647020535858495</v>
+        <v>-6.411487741038001</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.962784832557413</v>
+        <v>-2.432466833255065</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.177306665678425</v>
+        <v>-7.037231729934445</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>4.655620382324883</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.414597149405359</v>
+        <v>-6.138172701149988</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.959958986588336</v>
+        <v>-2.440831924004356</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.015162752937191</v>
+        <v>-6.953307038056983</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>4.447376396173945</v>
       </c>
       <c r="E58" t="n">
-        <v>-5.740696442869802</v>
+        <v>-5.460561238402443</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.052967453224526</v>
+        <v>-2.456447411937283</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.175859519645818</v>
+        <v>-7.143044505555086</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.229102684945445</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.423399897207022</v>
+        <v>-5.137564110732839</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.051965206816808</v>
+        <v>-2.555919145651534</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.088346296728041</v>
+        <v>-6.97169459288345</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>4.001399664026754</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.322735245817244</v>
+        <v>-5.069093569561696</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.208398759537486</v>
+        <v>-2.770429210944295</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.946178866045021</v>
+        <v>-6.887809013060924</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.76604326356532</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.114233769963922</v>
+        <v>-4.992018376304782</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.285029053169511</v>
+        <v>-2.808954585055584</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.864224443934925</v>
+        <v>-6.773318250251509</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.525048912690409</v>
       </c>
       <c r="E62" t="n">
-        <v>-4.914747622773191</v>
+        <v>-4.746262668125568</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.40092296094973</v>
+        <v>-2.969015780871513</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.051175177518886</v>
+        <v>-6.923308091921593</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>3.279672141209471</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.536934950111737</v>
+        <v>-4.37787111169666</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.504775244816737</v>
+        <v>-3.001513009515897</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.784636301148417</v>
+        <v>-6.668864618539871</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>3.033011947214739</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.492220093306933</v>
+        <v>-4.374267913635744</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.610724912629651</v>
+        <v>-3.125058213042837</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.697431085663255</v>
+        <v>-6.577401078073627</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.789186069701306</v>
       </c>
       <c r="E65" t="n">
-        <v>-4.26294522727609</v>
+        <v>-4.213864487339131</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.395540164389256</v>
+        <v>-2.899787443635997</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.756270283306577</v>
+        <v>-6.607214241948074</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.551481288676308</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.442019770797451</v>
+        <v>-4.395041303813265</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.576809871993862</v>
+        <v>-3.094101021561532</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.74962612297444</v>
+        <v>-6.593759695050323</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.323017618798076</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.203949581413028</v>
+        <v>-4.145775288703606</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.665300896285022</v>
+        <v>-3.202632085000177</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.5611206852068</v>
+        <v>-6.401074156411472</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.106573181654795</v>
       </c>
       <c r="E68" t="n">
-        <v>-4.335405198050636</v>
+        <v>-4.448351034690106</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.613790319935207</v>
+        <v>-3.099302924867929</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.466401066167189</v>
+        <v>-6.257782254149062</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.904513014170157</v>
       </c>
       <c r="E69" t="n">
-        <v>-4.546512514564024</v>
+        <v>-4.709340888266627</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.709052618737045</v>
+        <v>-3.099439817060203</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.178609676946241</v>
+        <v>-6.012280774326928</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.71966426061086</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.326600096683323</v>
+        <v>-4.553401125239507</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.602814499518983</v>
+        <v>-3.106959109621518</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.140822542871855</v>
+        <v>-5.9165735759002</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.554105937017913</v>
       </c>
       <c r="E71" t="n">
-        <v>-4.835110589918013</v>
+        <v>-4.959149583138513</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.674330891968214</v>
+        <v>-3.094853928619037</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.053187094782404</v>
+        <v>-5.949422813039002</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.408819200440339</v>
       </c>
       <c r="E72" t="n">
-        <v>-4.941255818005604</v>
+        <v>-5.219230081437787</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.607063046486331</v>
+        <v>-3.085633261668035</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.635988582801085</v>
+        <v>-5.597991221431422</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.286605775655329</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.208972945030999</v>
+        <v>-5.291685163205466</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.79107059793641</v>
+        <v>-3.15930081713871</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.653696565673051</v>
+        <v>-5.605603405123208</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.188500762014027</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.449634308054888</v>
+        <v>-5.637293947634551</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.611717381023634</v>
+        <v>-2.970008249265497</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.171278702087085</v>
+        <v>-5.073645234954793</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.115308717526435</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.947007643646746</v>
+        <v>-6.129841833448764</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.766532672471363</v>
+        <v>-3.136117146575799</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.992477942950272</v>
+        <v>-4.930367999712984</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.067644395292201</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.148908960229733</v>
+        <v>-6.266704691681181</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.782945068523597</v>
+        <v>-3.162097329066585</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.536113596958096</v>
+        <v>-4.468087955411841</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>1.04514831126107</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.725386426928275</v>
+        <v>-6.848393839699855</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.809296815536269</v>
+        <v>-3.206416176315169</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.117712389287514</v>
+        <v>-4.166837130286276</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>1.048117686043171</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.430258991965737</v>
+        <v>-7.50638571789047</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.81641032052763</v>
+        <v>-3.225043292478115</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.818006490331894</v>
+        <v>-3.841038601681931</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>1.07659544279715</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.118254705298609</v>
+        <v>-8.255489128052913</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.815706303538794</v>
+        <v>-3.264419353784248</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.355613998872812</v>
+        <v>-3.405545426004615</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>1.129927129950271</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.720438570103392</v>
+        <v>-8.837456949463</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.897269605099536</v>
+        <v>-3.306533258935853</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.89925943089437</v>
+        <v>-2.991280318143443</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.208217942783426</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.365073681533595</v>
+        <v>-9.428919222208636</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.815921419840938</v>
+        <v>-3.236899134130383</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.506980186913716</v>
+        <v>-2.545251332667926</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.311300149275032</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.22806161765395</v>
+        <v>-10.33766337359645</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.959579997618367</v>
+        <v>-3.39837325293085</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.455572279708105</v>
+        <v>-2.599969097522438</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>1.43866595414746</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.24561061686496</v>
+        <v>-11.31616387496141</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.928828144425472</v>
+        <v>-3.439000899994914</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.065439309742026</v>
+        <v>-2.195770454800245</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.589928447935231</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.18006605536588</v>
+        <v>-12.29442481498989</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.015412456038536</v>
+        <v>-3.483808647930189</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.588081568263317</v>
+        <v>-1.721380340489753</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.76382892958956</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.5843746098048</v>
+        <v>-13.71405551694972</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.974046568937568</v>
+        <v>-3.386057844633092</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.554019857421521</v>
+        <v>-1.705725740501892</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.958950631738552</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.76139323500084</v>
+        <v>-14.87582044072098</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.005810446551915</v>
+        <v>-3.399536836565176</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.570256249226545</v>
+        <v>-1.687670638142375</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.175088842317407</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.22180803224447</v>
+        <v>-16.21435229677243</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.964777011917898</v>
+        <v>-3.420349338797633</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.281956403291438</v>
+        <v>-1.54560587660356</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.410843344096497</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.61893463559589</v>
+        <v>-17.55858962383756</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.996619113642115</v>
+        <v>-3.413113608634599</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.614291534076848</v>
+        <v>-1.886550548481608</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.664455824454343</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.09105371527891</v>
+        <v>-19.05563774953498</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.019406774648805</v>
+        <v>-3.478772970857267</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.33247451124727</v>
+        <v>-1.693112102785251</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.933663547212365</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.89267719077141</v>
+        <v>-20.77184538605561</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.818869490981688</v>
+        <v>-3.298994410347071</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.51521092091195</v>
+        <v>-1.942094555496629</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.214748057185273</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.41621395567378</v>
+        <v>-22.26210757022175</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.875596637658502</v>
+        <v>-3.328827130248985</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.670075102428348</v>
+        <v>-2.12348159926604</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.50237068315584</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.32337642240237</v>
+        <v>-24.23563341616184</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.680975052300352</v>
+        <v>-3.111642778200022</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.965151111881</v>
+        <v>-2.433547303772653</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.789604600694121</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.14216031199773</v>
+        <v>-26.08668475107885</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.620718042665625</v>
+        <v>-3.075757467796867</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.439971458795779</v>
+        <v>-3.008088723751897</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.066097180555149</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.21007576901391</v>
+        <v>-28.04403042879288</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.86223987089809</v>
+        <v>-3.402915140310215</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.616914395323165</v>
+        <v>-3.188087289571105</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.324562972701018</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.43568125351557</v>
+        <v>-30.37893210630785</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.782299719617164</v>
+        <v>-3.23584310864713</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.891173013536493</v>
+        <v>-3.409026398893858</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.555066184871177</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52511078524961</v>
+        <v>-32.38176999291854</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.915437154616992</v>
+        <v>-3.319670020387254</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.209638031840466</v>
+        <v>-3.617029196046754</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.749276848872696</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.66859073240083</v>
+        <v>-34.39588926287462</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.040918404863231</v>
+        <v>-3.548099088230121</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.535392559383009</v>
+        <v>-3.917972013739704</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.897546998407151</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.63025584768179</v>
+        <v>-36.35069754602472</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.123513286872892</v>
+        <v>-3.607974755329228</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.8017065414376</v>
+        <v>-4.065717801257874</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.995940529779901</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.14795015844041</v>
+        <v>-38.80614502135379</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.164898730001327</v>
+        <v>-3.555334818393155</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.112222034575969</v>
+        <v>-4.376536412821991</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.033387613646001</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.29108787511095</v>
+        <v>-41.04043582655451</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.286175434342019</v>
+        <v>-3.659191991267029</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.64811585527225</v>
+        <v>-4.887154068016323</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.012618924671133</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.3282197003896</v>
+        <v>-43.07415756954349</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.332117431870419</v>
+        <v>-3.642295583534971</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.017182094648793</v>
+        <v>-5.25703677153964</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>4.915082242974677</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.7122436743999</v>
+        <v>-45.49495909771016</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.637841698279212</v>
+        <v>-3.959337900840671</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.238732329829911</v>
+        <v>-5.567356704403332</v>
       </c>
     </row>
   </sheetData>
